--- a/hwdemo/log/ABFilterExample.xlsx
+++ b/hwdemo/log/ABFilterExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielruoff/Documents/GitHub/ELE492-RobotArm/hwdemo/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DECDD40-68B8-0148-A848-C88F68BD547F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998BFC4C-E405-D44D-B9F8-54FC1E0742BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15406,15 +15406,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>2</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>339724</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15743,7 +15743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
